--- a/product_info_2020-02-27.xlsx
+++ b/product_info_2020-02-27.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djayaraj\Dropbox\DJShail\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -184,11 +189,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +257,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -298,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,9 +343,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,6 +378,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,14 +554,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -607,7 +629,7 @@
         <v>479.99</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -639,7 +661,7 @@
         <v>499.99</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -671,7 +693,7 @@
         <v>699.99</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -703,7 +725,7 @@
         <v>549.99</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -735,7 +757,7 @@
         <v>469.99</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -767,7 +789,7 @@
         <v>599.99</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -799,7 +821,7 @@
         <v>749.99</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -831,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,13 +879,13 @@
         <v>773</v>
       </c>
       <c r="I10">
-        <v>2199.99</v>
+        <v>2199.9899999999998</v>
       </c>
       <c r="J10">
-        <v>2499.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>2499.9899999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -895,7 +917,7 @@
         <v>1599.99</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -927,7 +949,7 @@
         <v>1299.99</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -959,7 +981,7 @@
         <v>799.99</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,10 +1010,10 @@
         <v>1899.99</v>
       </c>
       <c r="J14">
-        <v>2299.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>2299.9899999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1023,7 +1045,7 @@
         <v>1099.99</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1055,7 +1077,7 @@
         <v>549.99</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1087,7 +1109,7 @@
         <v>1399.99</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1119,7 +1141,7 @@
         <v>1799.99</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1151,7 +1173,7 @@
         <v>699.99</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1183,7 +1205,7 @@
         <v>1229.99</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1215,7 +1237,7 @@
         <v>1799.99</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1247,7 +1269,7 @@
         <v>3499.99</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,7 +1301,7 @@
         <v>899.99</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1311,7 +1333,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1337,13 +1359,13 @@
         <v>405</v>
       </c>
       <c r="I25">
-        <v>2499.99</v>
+        <v>2499.9899999999998</v>
       </c>
       <c r="J25">
-        <v>2499.99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>2499.9899999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1375,7 +1397,7 @@
         <v>3499.99</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1407,7 +1429,7 @@
         <v>3499.99</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1439,7 +1461,7 @@
         <v>699.99</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1465,13 +1487,13 @@
         <v>282</v>
       </c>
       <c r="I29">
-        <v>2599.99</v>
+        <v>2599.9899999999998</v>
       </c>
       <c r="J29">
-        <v>2599.99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>2599.9899999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1503,7 +1525,7 @@
         <v>1099.99</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1535,7 +1557,7 @@
         <v>899.99</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1567,7 +1589,7 @@
         <v>3299.99</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1599,7 +1621,7 @@
         <v>749.99</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1631,7 +1653,7 @@
         <v>729.99</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1663,7 +1685,7 @@
         <v>1999.99</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1695,7 +1717,7 @@
         <v>3499.99</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1727,7 +1749,7 @@
         <v>3499.99</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1759,7 +1781,7 @@
         <v>5999.99</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1785,13 +1807,13 @@
         <v>686</v>
       </c>
       <c r="I39">
-        <v>2499.99</v>
+        <v>2499.9899999999998</v>
       </c>
       <c r="J39">
-        <v>2499.99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>2499.9899999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1823,7 +1845,7 @@
         <v>599.99</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1855,7 +1877,7 @@
         <v>7999.99</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1887,7 +1909,7 @@
         <v>7999.99</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1919,7 +1941,7 @@
         <v>999.99</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1951,7 +1973,7 @@
         <v>1199.99</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1983,7 +2005,7 @@
         <v>7999.99</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2015,7 +2037,7 @@
         <v>699.99</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2047,7 +2069,7 @@
         <v>1299.99</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
